--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_6_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3551001.110088982</v>
+        <v>3549119.775012518</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3308852.71361669</v>
+        <v>3308852.713616691</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8157901.349635378</v>
+        <v>8157901.349635379</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>84.22773893331222</v>
       </c>
       <c r="W2" t="n">
-        <v>204.1970224230688</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>38.67343395001303</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>61.19883336027321</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.203367682519121</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>80.02238511715201</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>67.26862363352819</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>116.1341136071582</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3026894971471</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -978,22 +978,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0561740220254</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>109.4603144255762</v>
       </c>
       <c r="I6" t="n">
-        <v>79.50345891148606</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.31735386046032</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.0065341915356</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9224779269495</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>46.31486364771744</v>
       </c>
       <c r="X6" t="n">
-        <v>112.6531981636316</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>14.44101598617299</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.99013723575145</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3058894199224</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>56.31449141872282</v>
+        <v>133.1396735585118</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>82.92375604299535</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S13" t="n">
-        <v>49.75377031702955</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T13" t="n">
         <v>210.5069097326778</v>
@@ -1585,16 +1585,16 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V13" t="n">
-        <v>241.0969919981166</v>
+        <v>82.32850692914849</v>
       </c>
       <c r="W13" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.2465977856062</v>
       </c>
       <c r="I14" t="n">
-        <v>70.7384837270293</v>
+        <v>70.73848372702932</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D16" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S16" t="n">
         <v>186.8801586578918</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>119.006898937456</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V16" t="n">
         <v>241.0969919981166</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>207.5440020263834</v>
+        <v>71.67232777430118</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>371.693190337769</v>
+        <v>371.6931903377691</v>
       </c>
       <c r="C17" t="n">
         <v>354.2322404452961</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>173.9397839911366</v>
       </c>
       <c r="W19" t="n">
         <v>275.4823470108796</v>
@@ -2068,7 +2068,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.41761368552143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>358.6904493527576</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.1972873303421</v>
+        <v>375.1972873303414</v>
       </c>
     </row>
     <row r="21">
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>63.50973686958251</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S22" t="n">
-        <v>119.4245953015883</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T22" t="n">
         <v>210.5069097326778</v>
@@ -2296,16 +2296,16 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>70.4176136855212</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808136</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578918</v>
@@ -2539,10 +2539,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>17.3715878145394</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>101.090483204578</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>97.57844865856738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>152.6276470398216</v>
       </c>
       <c r="X31" t="n">
-        <v>48.05202235368796</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C35" t="n">
         <v>297.1410016413669</v>
@@ -3272,16 +3272,16 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E35" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F35" t="n">
-        <v>338.7441556120698</v>
+        <v>338.7441556120708</v>
       </c>
       <c r="G35" t="n">
         <v>343.8326266600508</v>
       </c>
       <c r="H35" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I35" t="n">
         <v>13.64724492310012</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.81847467555819</v>
+        <v>64.81847467555784</v>
       </c>
       <c r="T35" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U35" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201604</v>
       </c>
       <c r="V35" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W35" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X35" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y35" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>314.6019515338399</v>
+        <v>314.60195153384</v>
       </c>
       <c r="C38" t="n">
         <v>297.1410016413669</v>
@@ -3509,7 +3509,7 @@
         <v>286.5511514910423</v>
       </c>
       <c r="E38" t="n">
-        <v>313.7984799426211</v>
+        <v>313.7984799426212</v>
       </c>
       <c r="F38" t="n">
         <v>338.7441556120708</v>
@@ -3518,10 +3518,10 @@
         <v>343.8326266600508</v>
       </c>
       <c r="H38" t="n">
-        <v>237.155358981677</v>
+        <v>237.1553589816771</v>
       </c>
       <c r="I38" t="n">
-        <v>13.64724492310008</v>
+        <v>13.64724492310012</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>64.81847467555819</v>
       </c>
       <c r="T38" t="n">
-        <v>140.3508982088612</v>
+        <v>140.3508982088613</v>
       </c>
       <c r="U38" t="n">
-        <v>182.9467051201603</v>
+        <v>182.9467051201589</v>
       </c>
       <c r="V38" t="n">
-        <v>259.6203683404942</v>
+        <v>259.6203683404943</v>
       </c>
       <c r="W38" t="n">
-        <v>281.1090785877723</v>
+        <v>281.1090785877724</v>
       </c>
       <c r="X38" t="n">
         <v>301.5992105488284</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.1060485264129</v>
+        <v>318.106048526413</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373635</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>313.7984799426212</v>
       </c>
       <c r="F41" t="n">
-        <v>338.7441556120699</v>
+        <v>338.7441556120708</v>
       </c>
       <c r="G41" t="n">
         <v>343.8326266600508</v>
@@ -3758,7 +3758,7 @@
         <v>237.1553589816771</v>
       </c>
       <c r="I41" t="n">
-        <v>13.64724492310009</v>
+        <v>13.6472449231001</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>64.81847467555818</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T41" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U41" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201603</v>
       </c>
       <c r="V41" t="n">
         <v>259.6203683404943</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.81847467555738</v>
+        <v>64.81847467555819</v>
       </c>
       <c r="T44" t="n">
         <v>140.3508982088613</v>
       </c>
       <c r="U44" t="n">
-        <v>182.9467051201604</v>
+        <v>182.9467051201598</v>
       </c>
       <c r="V44" t="n">
-        <v>259.6203683404943</v>
+        <v>259.6203683404942</v>
       </c>
       <c r="W44" t="n">
         <v>281.1090785877724</v>
@@ -4043,7 +4043,7 @@
         <v>301.5992105488284</v>
       </c>
       <c r="Y44" t="n">
-        <v>318.106048526413</v>
+        <v>318.1060485264129</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069507</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.35312136793682</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="C2" t="n">
-        <v>44.35312136793682</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="D2" t="n">
-        <v>44.35312136793682</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35312136793682</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="F2" t="n">
-        <v>37.40762061873335</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4340,10 +4340,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228791</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T2" t="n">
-        <v>529.5587134138199</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U2" t="n">
-        <v>529.5587134138199</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="V2" t="n">
-        <v>529.5587134138199</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="W2" t="n">
-        <v>323.2990948046595</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="X2" t="n">
-        <v>44.35312136793682</v>
+        <v>586.9299687188374</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.35312136793682</v>
+        <v>586.9299687188374</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>666.8334156301844</v>
+        <v>520.7989188188672</v>
       </c>
       <c r="C3" t="n">
-        <v>666.8334156301844</v>
+        <v>346.3458895377402</v>
       </c>
       <c r="D3" t="n">
-        <v>666.8334156301844</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="E3" t="n">
-        <v>507.5959606247288</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F3" t="n">
-        <v>361.0614026516138</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
         <v>165.799003153448</v>
@@ -4419,13 +4419,13 @@
         <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4440,19 +4440,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1042.809051415206</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V3" t="n">
-        <v>1042.809051415206</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W3" t="n">
-        <v>1042.809051415206</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X3" t="n">
-        <v>1042.809051415206</v>
+        <v>896.7745546038891</v>
       </c>
       <c r="Y3" t="n">
-        <v>835.0487526502525</v>
+        <v>689.0142558389352</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>191.7165880308942</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121.0612674663612</v>
+        <v>492.2095534303075</v>
       </c>
       <c r="C5" t="n">
-        <v>121.0612674663612</v>
+        <v>411.3788613927802</v>
       </c>
       <c r="D5" t="n">
-        <v>121.0612674663612</v>
+        <v>53.11316278602969</v>
       </c>
       <c r="E5" t="n">
-        <v>121.0612674663612</v>
+        <v>53.11316278602969</v>
       </c>
       <c r="F5" t="n">
-        <v>114.1157667171577</v>
+        <v>46.16766203682621</v>
       </c>
       <c r="G5" t="n">
-        <v>99.20092340249377</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="H5" t="n">
-        <v>99.20092340249377</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="I5" t="n">
-        <v>31.25281872216225</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="J5" t="n">
-        <v>64.54803626386081</v>
+        <v>64.54803626386104</v>
       </c>
       <c r="K5" t="n">
-        <v>235.1937407117775</v>
+        <v>235.1937407117779</v>
       </c>
       <c r="L5" t="n">
-        <v>499.171454147024</v>
+        <v>499.1714541470246</v>
       </c>
       <c r="M5" t="n">
-        <v>809.5040688767598</v>
+        <v>809.5040688767606</v>
       </c>
       <c r="N5" t="n">
-        <v>1110.22619220977</v>
+        <v>1110.226192209771</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.001927967032</v>
+        <v>1349.001927967033</v>
       </c>
       <c r="P5" t="n">
-        <v>1515.117111256433</v>
+        <v>1515.117111256435</v>
       </c>
       <c r="Q5" t="n">
-        <v>1562.640936108113</v>
+        <v>1562.640936108114</v>
       </c>
       <c r="R5" t="n">
-        <v>1445.333750646337</v>
+        <v>1562.640936108114</v>
       </c>
       <c r="S5" t="n">
-        <v>1445.333750646337</v>
+        <v>1562.640936108114</v>
       </c>
       <c r="T5" t="n">
-        <v>1445.333750646337</v>
+        <v>1562.640936108114</v>
       </c>
       <c r="U5" t="n">
-        <v>1191.492650144168</v>
+        <v>1562.640936108114</v>
       </c>
       <c r="V5" t="n">
-        <v>860.4297628005971</v>
+        <v>1231.578048764543</v>
       </c>
       <c r="W5" t="n">
-        <v>507.661107530483</v>
+        <v>878.8093934944293</v>
       </c>
       <c r="X5" t="n">
-        <v>507.661107530483</v>
+        <v>878.8093934944293</v>
       </c>
       <c r="Y5" t="n">
-        <v>507.661107530483</v>
+        <v>878.8093934944293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>989.7253487836039</v>
+        <v>475.5092771759935</v>
       </c>
       <c r="C6" t="n">
-        <v>815.2723195024769</v>
+        <v>301.0562478948665</v>
       </c>
       <c r="D6" t="n">
-        <v>666.3379098412256</v>
+        <v>301.0562478948665</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1004548357701</v>
+        <v>141.818792889411</v>
       </c>
       <c r="F6" t="n">
-        <v>360.565896862655</v>
+        <v>141.818792889411</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1253170424272</v>
+        <v>141.818792889411</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5593428751785</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="I6" t="n">
-        <v>31.25281872216225</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="J6" t="n">
-        <v>31.25281872216225</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="K6" t="n">
-        <v>31.25281872216225</v>
+        <v>202.545998537567</v>
       </c>
       <c r="L6" t="n">
-        <v>322.9820341621323</v>
+        <v>494.2752139775371</v>
       </c>
       <c r="M6" t="n">
-        <v>709.7356658488901</v>
+        <v>881.0288456642954</v>
       </c>
       <c r="N6" t="n">
-        <v>1096.489297535648</v>
+        <v>903.533358689444</v>
       </c>
       <c r="O6" t="n">
-        <v>1412.92529208485</v>
+        <v>1219.969353238647</v>
       </c>
       <c r="P6" t="n">
-        <v>1562.640936108113</v>
+        <v>1456.93406867705</v>
       </c>
       <c r="Q6" t="n">
-        <v>1562.640936108113</v>
+        <v>1562.640936108114</v>
       </c>
       <c r="R6" t="n">
-        <v>1479.492093824819</v>
+        <v>1562.640936108114</v>
       </c>
       <c r="S6" t="n">
-        <v>1479.492093824819</v>
+        <v>1562.640936108114</v>
       </c>
       <c r="T6" t="n">
-        <v>1479.492093824819</v>
+        <v>1361.624234904543</v>
       </c>
       <c r="U6" t="n">
-        <v>1479.492093824819</v>
+        <v>1133.419711746008</v>
       </c>
       <c r="V6" t="n">
-        <v>1479.492093824819</v>
+        <v>898.2676035142654</v>
       </c>
       <c r="W6" t="n">
-        <v>1479.492093824819</v>
+        <v>851.4849129610154</v>
       </c>
       <c r="X6" t="n">
-        <v>1365.700984568626</v>
+        <v>851.4849129610154</v>
       </c>
       <c r="Y6" t="n">
-        <v>1157.940685803672</v>
+        <v>643.7246141960616</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.6427446369839</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="C7" t="n">
-        <v>340.6427446369839</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="D7" t="n">
-        <v>326.0558598024658</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="E7" t="n">
-        <v>178.1427662200726</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="F7" t="n">
-        <v>31.25281872216225</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="G7" t="n">
-        <v>31.25281872216225</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="H7" t="n">
-        <v>31.25281872216225</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="I7" t="n">
-        <v>31.25281872216225</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="J7" t="n">
-        <v>31.25281872216225</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="K7" t="n">
-        <v>36.914206056396</v>
+        <v>36.91420605639609</v>
       </c>
       <c r="L7" t="n">
-        <v>99.68526729973824</v>
+        <v>99.68526729973841</v>
       </c>
       <c r="M7" t="n">
-        <v>176.2576733231305</v>
+        <v>176.2576733231307</v>
       </c>
       <c r="N7" t="n">
-        <v>256.4439751008823</v>
+        <v>256.4439751008827</v>
       </c>
       <c r="O7" t="n">
-        <v>314.4927078071748</v>
+        <v>314.4927078071752</v>
       </c>
       <c r="P7" t="n">
-        <v>340.6427446369839</v>
+        <v>340.6427446369844</v>
       </c>
       <c r="Q7" t="n">
-        <v>340.6427446369839</v>
+        <v>340.6427446369844</v>
       </c>
       <c r="R7" t="n">
-        <v>340.6427446369839</v>
+        <v>320.450686823094</v>
       </c>
       <c r="S7" t="n">
-        <v>340.6427446369839</v>
+        <v>320.450686823094</v>
       </c>
       <c r="T7" t="n">
-        <v>340.6427446369839</v>
+        <v>320.450686823094</v>
       </c>
       <c r="U7" t="n">
-        <v>340.6427446369839</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="V7" t="n">
-        <v>340.6427446369839</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="W7" t="n">
-        <v>340.6427446369839</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="X7" t="n">
-        <v>340.6427446369839</v>
+        <v>31.25281872216229</v>
       </c>
       <c r="Y7" t="n">
-        <v>340.6427446369839</v>
+        <v>31.25281872216229</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1683.829970582156</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="C8" t="n">
-        <v>1683.829970582156</v>
+        <v>748.5506339801032</v>
       </c>
       <c r="D8" t="n">
-        <v>1325.564271975406</v>
+        <v>748.5506339801032</v>
       </c>
       <c r="E8" t="n">
-        <v>939.7760193771617</v>
+        <v>362.7623813818589</v>
       </c>
       <c r="F8" t="n">
-        <v>528.7901145875542</v>
+        <v>355.8168806326555</v>
       </c>
       <c r="G8" t="n">
-        <v>110.826306485741</v>
+        <v>341.8934765712464</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.829970582156</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y8" t="n">
-        <v>1683.829970582156</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4966,40 +4966,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2346.842242629253</v>
+        <v>2346.842242629252</v>
       </c>
       <c r="C11" t="n">
-        <v>1989.031898745116</v>
+        <v>1989.031898745115</v>
       </c>
       <c r="D11" t="n">
         <v>1641.918373194639</v>
@@ -5036,55 +5036,55 @@
         <v>165.2561747985412</v>
       </c>
       <c r="I11" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="J11" t="n">
-        <v>362.4674026549479</v>
+        <v>362.4674026549478</v>
       </c>
       <c r="K11" t="n">
-        <v>885.8702612239776</v>
+        <v>885.8702612239775</v>
       </c>
       <c r="L11" t="n">
         <v>1587.474417267776</v>
       </c>
       <c r="M11" t="n">
-        <v>2217.468175143554</v>
+        <v>2384.750770987666</v>
       </c>
       <c r="N11" t="n">
-        <v>3013.013296247585</v>
+        <v>3013.013296247584</v>
       </c>
       <c r="O11" t="n">
-        <v>3719.036357271781</v>
+        <v>3719.03635727178</v>
       </c>
       <c r="P11" t="n">
-        <v>4283.936322527584</v>
+        <v>4283.936322527583</v>
       </c>
       <c r="Q11" t="n">
-        <v>4630.930910836287</v>
+        <v>4630.930910836286</v>
       </c>
       <c r="R11" t="n">
         <v>4690.158046642749</v>
       </c>
       <c r="S11" t="n">
-        <v>4567.016921915994</v>
+        <v>4567.016921915993</v>
       </c>
       <c r="T11" t="n">
         <v>4367.580419882873</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.117850262581</v>
+        <v>4125.11785026258</v>
       </c>
       <c r="V11" t="n">
-        <v>3805.207135975284</v>
+        <v>3805.207135975283</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.590653761444</v>
+        <v>3463.590653761443</v>
       </c>
       <c r="X11" t="n">
-        <v>3101.277068556638</v>
+        <v>3101.277068556637</v>
       </c>
       <c r="Y11" t="n">
-        <v>2722.289909637101</v>
+        <v>2722.2899096371</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>121.9863246400716</v>
       </c>
       <c r="I12" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="J12" t="n">
         <v>260.1243630852173</v>
@@ -5127,7 +5127,7 @@
         <v>917.7797598361941</v>
       </c>
       <c r="M12" t="n">
-        <v>1510.624983868054</v>
+        <v>1225.099893116156</v>
       </c>
       <c r="N12" t="n">
         <v>1840.487611532087</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.80316093285499</v>
+        <v>333.1500456106949</v>
       </c>
       <c r="C13" t="n">
-        <v>93.80316093285499</v>
+        <v>333.1500456106949</v>
       </c>
       <c r="D13" t="n">
-        <v>93.80316093285499</v>
+        <v>194.1855792546333</v>
       </c>
       <c r="E13" t="n">
-        <v>93.80316093285499</v>
+        <v>194.1855792546333</v>
       </c>
       <c r="F13" t="n">
-        <v>93.80316093285499</v>
+        <v>194.1855792546333</v>
       </c>
       <c r="G13" t="n">
-        <v>93.80316093285499</v>
+        <v>194.1855792546333</v>
       </c>
       <c r="H13" t="n">
-        <v>93.80316093285499</v>
+        <v>194.1855792546333</v>
       </c>
       <c r="I13" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285496</v>
       </c>
       <c r="J13" t="n">
         <v>117.1160982092192</v>
@@ -5203,7 +5203,7 @@
         <v>278.231747266285</v>
       </c>
       <c r="L13" t="n">
-        <v>536.8740370898686</v>
+        <v>536.8740370898685</v>
       </c>
       <c r="M13" t="n">
         <v>819.3710246695057</v>
@@ -5221,28 +5221,28 @@
         <v>1582.944298530106</v>
       </c>
       <c r="R13" t="n">
-        <v>1582.944298530106</v>
+        <v>1483.021368148206</v>
       </c>
       <c r="S13" t="n">
-        <v>1532.687964876541</v>
+        <v>1294.253531120032</v>
       </c>
       <c r="T13" t="n">
-        <v>1320.054722722321</v>
+        <v>1081.620288965812</v>
       </c>
       <c r="U13" t="n">
-        <v>1042.078256992153</v>
+        <v>803.6438232356445</v>
       </c>
       <c r="V13" t="n">
-        <v>798.5459418425405</v>
+        <v>720.4837152264035</v>
       </c>
       <c r="W13" t="n">
-        <v>520.2809448618541</v>
+        <v>720.4837152264035</v>
       </c>
       <c r="X13" t="n">
-        <v>303.4435670201109</v>
+        <v>503.6463373846604</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.80316093285499</v>
+        <v>503.6463373846604</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2346.842242629253</v>
       </c>
       <c r="C14" t="n">
-        <v>1989.031898745116</v>
+        <v>1989.031898745115</v>
       </c>
       <c r="D14" t="n">
         <v>1641.918373194639</v>
@@ -5264,10 +5264,10 @@
         <v>1267.282293652669</v>
       </c>
       <c r="F14" t="n">
-        <v>867.4485619193356</v>
+        <v>867.4485619193355</v>
       </c>
       <c r="G14" t="n">
-        <v>462.4749604405679</v>
+        <v>462.4749604405678</v>
       </c>
       <c r="H14" t="n">
         <v>165.2561747985412</v>
@@ -5355,25 +5355,25 @@
         <v>93.80316093285499</v>
       </c>
       <c r="J15" t="n">
-        <v>260.1243630852173</v>
+        <v>135.2942380982126</v>
       </c>
       <c r="K15" t="n">
-        <v>671.0146319297301</v>
+        <v>284.3639223002725</v>
       </c>
       <c r="L15" t="n">
-        <v>1203.304850588092</v>
+        <v>898.260992057161</v>
       </c>
       <c r="M15" t="n">
-        <v>1510.624983868054</v>
+        <v>1666.629138449623</v>
       </c>
       <c r="N15" t="n">
-        <v>1840.487611532087</v>
+        <v>1996.491766113655</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.027676750784</v>
+        <v>2328.004191609275</v>
       </c>
       <c r="P15" t="n">
-        <v>2325.050157532994</v>
+        <v>2533.026672391484</v>
       </c>
       <c r="Q15" t="n">
         <v>2620.159574848708</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>372.0334626846991</v>
+        <v>251.5871708044875</v>
       </c>
       <c r="C16" t="n">
-        <v>372.0334626846991</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="D16" t="n">
-        <v>233.0689963286375</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="E16" t="n">
-        <v>233.0689963286375</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="F16" t="n">
-        <v>233.0689963286375</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="G16" t="n">
-        <v>233.0689963286375</v>
+        <v>93.80316093285499</v>
       </c>
       <c r="H16" t="n">
         <v>93.80316093285499</v>
@@ -5440,7 +5440,7 @@
         <v>278.2317472662849</v>
       </c>
       <c r="L16" t="n">
-        <v>536.8740370898685</v>
+        <v>536.8740370898686</v>
       </c>
       <c r="M16" t="n">
         <v>819.3710246695057</v>
@@ -5458,28 +5458,28 @@
         <v>1582.944298530106</v>
       </c>
       <c r="R16" t="n">
-        <v>1582.944298530106</v>
+        <v>1483.021368148206</v>
       </c>
       <c r="S16" t="n">
-        <v>1394.176461501933</v>
+        <v>1294.253531120032</v>
       </c>
       <c r="T16" t="n">
-        <v>1394.176461501933</v>
+        <v>1294.253531120032</v>
       </c>
       <c r="U16" t="n">
-        <v>1273.96747267622</v>
+        <v>1016.277065389864</v>
       </c>
       <c r="V16" t="n">
-        <v>1030.435157526607</v>
+        <v>772.7447502402517</v>
       </c>
       <c r="W16" t="n">
-        <v>752.1701605459205</v>
+        <v>494.4797532595653</v>
       </c>
       <c r="X16" t="n">
-        <v>752.1701605459205</v>
+        <v>494.4797532595653</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.5297544586645</v>
+        <v>422.083462578453</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2346.842242629253</v>
+        <v>2346.842242629254</v>
       </c>
       <c r="C17" t="n">
-        <v>1989.031898745115</v>
+        <v>1989.031898745116</v>
       </c>
       <c r="D17" t="n">
-        <v>1641.918373194639</v>
+        <v>1641.91837319464</v>
       </c>
       <c r="E17" t="n">
-        <v>1267.282293652669</v>
+        <v>1267.28229365267</v>
       </c>
       <c r="F17" t="n">
-        <v>867.4485619193354</v>
+        <v>867.4485619193356</v>
       </c>
       <c r="G17" t="n">
-        <v>462.4749604405677</v>
+        <v>462.4749604405679</v>
       </c>
       <c r="H17" t="n">
         <v>165.2561747985412</v>
       </c>
       <c r="I17" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="J17" t="n">
-        <v>362.4674026549479</v>
+        <v>362.4674026549478</v>
       </c>
       <c r="K17" t="n">
-        <v>885.8702612239776</v>
+        <v>885.8702612239775</v>
       </c>
       <c r="L17" t="n">
         <v>1587.474417267776</v>
@@ -5528,13 +5528,13 @@
         <v>3180.295892091697</v>
       </c>
       <c r="O17" t="n">
-        <v>3719.036357271781</v>
+        <v>3886.318953115893</v>
       </c>
       <c r="P17" t="n">
-        <v>4283.936322527584</v>
+        <v>4451.218918371696</v>
       </c>
       <c r="Q17" t="n">
-        <v>4630.930910836287</v>
+        <v>4630.930910836286</v>
       </c>
       <c r="R17" t="n">
         <v>4690.158046642749</v>
@@ -5546,19 +5546,19 @@
         <v>4367.580419882873</v>
       </c>
       <c r="U17" t="n">
-        <v>4125.11785026258</v>
+        <v>4125.117850262581</v>
       </c>
       <c r="V17" t="n">
         <v>3805.207135975284</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.590653761444</v>
+        <v>3463.590653761445</v>
       </c>
       <c r="X17" t="n">
-        <v>3101.277068556638</v>
+        <v>3101.277068556639</v>
       </c>
       <c r="Y17" t="n">
-        <v>2722.2899096371</v>
+        <v>2722.289909637101</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>121.9863246400716</v>
       </c>
       <c r="I18" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="J18" t="n">
         <v>260.1243630852173</v>
@@ -5604,10 +5604,10 @@
         <v>1225.099893116156</v>
       </c>
       <c r="N18" t="n">
-        <v>1554.962520780188</v>
+        <v>1840.487611532087</v>
       </c>
       <c r="O18" t="n">
-        <v>1834.502585998885</v>
+        <v>2120.027676750784</v>
       </c>
       <c r="P18" t="n">
         <v>2325.050157532994</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.80316093285499</v>
+        <v>232.7676272889165</v>
       </c>
       <c r="C19" t="n">
-        <v>93.80316093285499</v>
+        <v>232.7676272889165</v>
       </c>
       <c r="D19" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="E19" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="F19" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="G19" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="H19" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="I19" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="J19" t="n">
-        <v>117.1160982092191</v>
+        <v>117.1160982092192</v>
       </c>
       <c r="K19" t="n">
-        <v>278.2317472662849</v>
+        <v>278.231747266285</v>
       </c>
       <c r="L19" t="n">
-        <v>536.8740370898685</v>
+        <v>536.8740370898686</v>
       </c>
       <c r="M19" t="n">
-        <v>819.3710246695057</v>
+        <v>819.3710246695056</v>
       </c>
       <c r="N19" t="n">
-        <v>1100.845378509508</v>
+        <v>1100.845378509507</v>
       </c>
       <c r="O19" t="n">
         <v>1345.650601327359</v>
@@ -5698,25 +5698,25 @@
         <v>1582.944298530106</v>
       </c>
       <c r="S19" t="n">
-        <v>1394.176461501933</v>
+        <v>1394.176461501932</v>
       </c>
       <c r="T19" t="n">
-        <v>1181.543219347713</v>
+        <v>1181.543219347712</v>
       </c>
       <c r="U19" t="n">
-        <v>903.566753617545</v>
+        <v>903.5667536175447</v>
       </c>
       <c r="V19" t="n">
-        <v>660.0344384679323</v>
+        <v>727.8700021113461</v>
       </c>
       <c r="W19" t="n">
-        <v>381.7694414872459</v>
+        <v>449.6050051306597</v>
       </c>
       <c r="X19" t="n">
-        <v>164.9320636455029</v>
+        <v>232.7676272889165</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.80316093285499</v>
+        <v>232.7676272889165</v>
       </c>
     </row>
     <row r="20">
@@ -5747,52 +5747,52 @@
         <v>165.2561747985412</v>
       </c>
       <c r="I20" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="J20" t="n">
-        <v>362.4674026549479</v>
+        <v>195.1848068108347</v>
       </c>
       <c r="K20" t="n">
-        <v>885.8702612239776</v>
+        <v>718.5876653798645</v>
       </c>
       <c r="L20" t="n">
-        <v>1587.474417267776</v>
+        <v>1420.191821423663</v>
       </c>
       <c r="M20" t="n">
-        <v>2384.750770987666</v>
+        <v>2217.468175143553</v>
       </c>
       <c r="N20" t="n">
-        <v>3180.295892091697</v>
+        <v>3013.013296247584</v>
       </c>
       <c r="O20" t="n">
-        <v>3886.318953115893</v>
+        <v>3719.03635727178</v>
       </c>
       <c r="P20" t="n">
-        <v>4451.218918371696</v>
+        <v>4283.936322527583</v>
       </c>
       <c r="Q20" t="n">
-        <v>4690.158046642749</v>
+        <v>4630.930910836286</v>
       </c>
       <c r="R20" t="n">
         <v>4690.158046642749</v>
       </c>
       <c r="S20" t="n">
-        <v>4567.016921915994</v>
+        <v>4567.016921915993</v>
       </c>
       <c r="T20" t="n">
-        <v>4367.580419882873</v>
+        <v>4367.580419882872</v>
       </c>
       <c r="U20" t="n">
-        <v>4125.11785026258</v>
+        <v>4125.117850262579</v>
       </c>
       <c r="V20" t="n">
-        <v>3805.207135975284</v>
+        <v>3805.207135975283</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.590653761444</v>
+        <v>3463.590653761443</v>
       </c>
       <c r="X20" t="n">
-        <v>3101.277068556638</v>
+        <v>3101.277068556637</v>
       </c>
       <c r="Y20" t="n">
         <v>2722.2899096371</v>
@@ -5826,28 +5826,28 @@
         <v>121.9863246400716</v>
       </c>
       <c r="I21" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="J21" t="n">
-        <v>260.1243630852173</v>
+        <v>135.2942380982126</v>
       </c>
       <c r="K21" t="n">
-        <v>671.0146319297301</v>
+        <v>546.1845069427252</v>
       </c>
       <c r="L21" t="n">
-        <v>917.7797598361941</v>
+        <v>792.9496348491892</v>
       </c>
       <c r="M21" t="n">
-        <v>1225.099893116156</v>
+        <v>1561.317781241651</v>
       </c>
       <c r="N21" t="n">
-        <v>1554.962520780188</v>
+        <v>1891.180408905683</v>
       </c>
       <c r="O21" t="n">
-        <v>1834.502585998885</v>
+        <v>2170.72047412438</v>
       </c>
       <c r="P21" t="n">
-        <v>2325.050157532994</v>
+        <v>2533.026672391484</v>
       </c>
       <c r="Q21" t="n">
         <v>2620.159574848708</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>233.0689963286376</v>
+        <v>315.738420167702</v>
       </c>
       <c r="C22" t="n">
-        <v>233.0689963286376</v>
+        <v>157.9544102960692</v>
       </c>
       <c r="D22" t="n">
-        <v>233.0689963286376</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="E22" t="n">
-        <v>233.0689963286376</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="F22" t="n">
-        <v>233.0689963286376</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="G22" t="n">
-        <v>233.0689963286376</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="H22" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="I22" t="n">
-        <v>93.80316093285499</v>
+        <v>93.80316093285498</v>
       </c>
       <c r="J22" t="n">
-        <v>117.1160982092192</v>
+        <v>117.1160982092191</v>
       </c>
       <c r="K22" t="n">
-        <v>278.231747266285</v>
+        <v>278.2317472662849</v>
       </c>
       <c r="L22" t="n">
-        <v>536.8740370898686</v>
+        <v>536.8740370898685</v>
       </c>
       <c r="M22" t="n">
         <v>819.3710246695055</v>
@@ -5932,28 +5932,28 @@
         <v>1582.944298530106</v>
       </c>
       <c r="R22" t="n">
-        <v>1582.944298530106</v>
+        <v>1483.021368148206</v>
       </c>
       <c r="S22" t="n">
-        <v>1462.313394185067</v>
+        <v>1294.253531120032</v>
       </c>
       <c r="T22" t="n">
-        <v>1249.680152030847</v>
+        <v>1081.620288965812</v>
       </c>
       <c r="U22" t="n">
-        <v>971.7036863006799</v>
+        <v>803.6438232356443</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1713711510672</v>
+        <v>803.6438232356443</v>
       </c>
       <c r="W22" t="n">
-        <v>449.9063741703808</v>
+        <v>525.3788262549579</v>
       </c>
       <c r="X22" t="n">
-        <v>233.0689963286376</v>
+        <v>525.3788262549579</v>
       </c>
       <c r="Y22" t="n">
-        <v>233.0689963286376</v>
+        <v>315.738420167702</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6014,10 +6014,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>168.3459941729338</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366498</v>
       </c>
       <c r="K25" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937155</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172996</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q25" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875144</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449761</v>
+        <v>807.0577537630751</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953634</v>
+        <v>563.5254386134624</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146769</v>
+        <v>285.2604416327761</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729338</v>
+        <v>285.2604416327761</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729338</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6248,28 +6248,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.5728295347034</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>496.6366466067965</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="D28" t="n">
-        <v>496.6366466067965</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E28" t="n">
-        <v>496.6366466067965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>349.7466991088861</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W28" t="n">
-        <v>1075.21084526296</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="X28" t="n">
-        <v>847.2212943649431</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y28" t="n">
-        <v>847.2212943649431</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1029.666285013068</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>860.7301020851613</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D31" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>1298.996260473455</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.458864156598</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.666285013068</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6704,7 +6704,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229672</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982972</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C35" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D35" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E35" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F35" t="n">
-        <v>676.7913636872897</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G35" t="n">
         <v>329.485680192289</v>
@@ -6932,55 +6932,55 @@
         <v>89.93481253402933</v>
       </c>
       <c r="I35" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J35" t="n">
-        <v>344.8139583742028</v>
+        <v>344.8139583742029</v>
       </c>
       <c r="K35" t="n">
-        <v>868.2168169432323</v>
+        <v>868.2168169432326</v>
       </c>
       <c r="L35" t="n">
-        <v>1415.511460712183</v>
+        <v>1502.51148448607</v>
       </c>
       <c r="M35" t="n">
-        <v>1767.76941627417</v>
+        <v>2299.78783820596</v>
       </c>
       <c r="N35" t="n">
-        <v>2130.341082210336</v>
+        <v>3095.332959309991</v>
       </c>
       <c r="O35" t="n">
-        <v>2836.364143234532</v>
+        <v>3424.363840884069</v>
       </c>
       <c r="P35" t="n">
-        <v>3401.264108490335</v>
+        <v>3670.683085050104</v>
       </c>
       <c r="Q35" t="n">
-        <v>3748.258696799037</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="R35" t="n">
-        <v>3807.4858326055</v>
+        <v>3807.485832605501</v>
       </c>
       <c r="S35" t="n">
-        <v>3742.012625862512</v>
+        <v>3742.012625862514</v>
       </c>
       <c r="T35" t="n">
-        <v>3600.244041813157</v>
+        <v>3600.244041813159</v>
       </c>
       <c r="U35" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V35" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W35" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X35" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y35" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>104.3328803593266</v>
       </c>
       <c r="I36" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J36" t="n">
-        <v>242.4709188044723</v>
+        <v>117.6407938174677</v>
       </c>
       <c r="K36" t="n">
-        <v>653.3611876489849</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L36" t="n">
-        <v>900.1263155554489</v>
+        <v>775.2961905684443</v>
       </c>
       <c r="M36" t="n">
-        <v>1207.44644883541</v>
+        <v>1177.693398633771</v>
       </c>
       <c r="N36" t="n">
-        <v>1537.309076499443</v>
+        <v>1507.556026297804</v>
       </c>
       <c r="O36" t="n">
-        <v>1816.84914171814</v>
+        <v>1787.096091516501</v>
       </c>
       <c r="P36" t="n">
         <v>2307.396713252248</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>638.3928643026568</v>
+        <v>638.392864302657</v>
       </c>
       <c r="C37" t="n">
-        <v>538.276772414791</v>
+        <v>538.2767724147911</v>
       </c>
       <c r="D37" t="n">
         <v>456.9802240424964</v>
@@ -7084,13 +7084,13 @@
         <v>299.8173650422751</v>
       </c>
       <c r="G37" t="n">
-        <v>200.4621344021368</v>
+        <v>200.4621344021372</v>
       </c>
       <c r="H37" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I37" t="n">
-        <v>76.14971665211002</v>
+        <v>76.14971665211003</v>
       </c>
       <c r="J37" t="n">
         <v>155.9829803443641</v>
@@ -7099,10 +7099,10 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L37" t="n">
-        <v>688.7815720567933</v>
+        <v>688.7815720567934</v>
       </c>
       <c r="M37" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N37" t="n">
         <v>1365.793566308212</v>
@@ -7117,7 +7117,7 @@
         <v>2017.45346557648</v>
       </c>
       <c r="R37" t="n">
-        <v>1975.198453178346</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S37" t="n">
         <v>1844.09853413394</v>
@@ -7129,16 +7129,16 @@
         <v>1468.824662217086</v>
       </c>
       <c r="V37" t="n">
-        <v>1282.96026505124</v>
+        <v>1282.960265051241</v>
       </c>
       <c r="W37" t="n">
         <v>1062.363186054321</v>
       </c>
       <c r="X37" t="n">
-        <v>903.1937261963444</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2212380928554</v>
+        <v>751.2212380928556</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1925.513372462138</v>
+        <v>1925.51337246214</v>
       </c>
       <c r="C38" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D38" t="n">
-        <v>1335.925338995058</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E38" t="n">
-        <v>1018.957177436855</v>
+        <v>1018.957177436856</v>
       </c>
       <c r="F38" t="n">
-        <v>676.791363687289</v>
+        <v>676.79136368729</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4856801922888</v>
+        <v>329.485680192289</v>
       </c>
       <c r="H38" t="n">
-        <v>89.93481253402928</v>
+        <v>89.93481253402933</v>
       </c>
       <c r="I38" t="n">
         <v>76.14971665211002</v>
       </c>
       <c r="J38" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K38" t="n">
-        <v>868.2168169432326</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L38" t="n">
-        <v>1569.820972987031</v>
+        <v>1233.0925079263</v>
       </c>
       <c r="M38" t="n">
-        <v>2203.988731530751</v>
+        <v>2030.36886164619</v>
       </c>
       <c r="N38" t="n">
-        <v>2566.560397466917</v>
+        <v>2825.913982750221</v>
       </c>
       <c r="O38" t="n">
-        <v>2895.591279040995</v>
+        <v>3154.944864324299</v>
       </c>
       <c r="P38" t="n">
-        <v>3460.491244296798</v>
+        <v>3401.264108490334</v>
       </c>
       <c r="Q38" t="n">
-        <v>3807.485832605501</v>
+        <v>3748.258696799037</v>
       </c>
       <c r="R38" t="n">
-        <v>3807.485832605501</v>
+        <v>3807.4858326055</v>
       </c>
       <c r="S38" t="n">
         <v>3742.012625862512</v>
@@ -7205,19 +7205,19 @@
         <v>3600.244041813157</v>
       </c>
       <c r="U38" t="n">
-        <v>3415.449390176632</v>
+        <v>3415.449390176633</v>
       </c>
       <c r="V38" t="n">
-        <v>3153.206593873102</v>
+        <v>3153.206593873103</v>
       </c>
       <c r="W38" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X38" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y38" t="n">
-        <v>2243.293121486219</v>
+        <v>2243.293121486221</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>242.4709188044724</v>
       </c>
       <c r="K39" t="n">
-        <v>653.361187648985</v>
+        <v>391.5406030065323</v>
       </c>
       <c r="L39" t="n">
-        <v>900.1263155554491</v>
+        <v>1005.437672763421</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.446448835411</v>
+        <v>1700.9480544458</v>
       </c>
       <c r="N39" t="n">
-        <v>1537.309076499444</v>
+        <v>2030.810682109832</v>
       </c>
       <c r="O39" t="n">
-        <v>1816.849141718141</v>
+        <v>2310.350747328529</v>
       </c>
       <c r="P39" t="n">
-        <v>2307.396713252248</v>
+        <v>2515.373228110739</v>
       </c>
       <c r="Q39" t="n">
         <v>2602.506130567962</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.3928643026575</v>
+        <v>638.3928643026568</v>
       </c>
       <c r="C40" t="n">
-        <v>538.2767724147916</v>
+        <v>538.2767724147909</v>
       </c>
       <c r="D40" t="n">
-        <v>456.9802240424969</v>
+        <v>456.9802240424962</v>
       </c>
       <c r="E40" t="n">
-        <v>377.8872215001448</v>
+        <v>377.8872215001442</v>
       </c>
       <c r="F40" t="n">
-        <v>299.8173650422758</v>
+        <v>299.8173650422748</v>
       </c>
       <c r="G40" t="n">
-        <v>200.4621344021375</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H40" t="n">
-        <v>118.8642169901214</v>
+        <v>118.8642169901215</v>
       </c>
       <c r="I40" t="n">
         <v>76.14971665211002</v>
@@ -7336,34 +7336,34 @@
         <v>373.6189558173198</v>
       </c>
       <c r="L40" t="n">
-        <v>688.7815720567935</v>
+        <v>688.7815720567933</v>
       </c>
       <c r="M40" t="n">
-        <v>1027.798886052321</v>
+        <v>1027.79888605232</v>
       </c>
       <c r="N40" t="n">
-        <v>1365.793566308213</v>
+        <v>1365.793566308212</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P40" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q40" t="n">
         <v>2017.453465576481</v>
       </c>
       <c r="R40" t="n">
-        <v>1975.198453178348</v>
+        <v>1975.198453178347</v>
       </c>
       <c r="S40" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T40" t="n">
-        <v>1689.133209963488</v>
+        <v>1689.133209963487</v>
       </c>
       <c r="U40" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V40" t="n">
         <v>1282.960265051241</v>
@@ -7372,10 +7372,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X40" t="n">
-        <v>903.1937261963451</v>
+        <v>903.1937261963446</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2212380928561</v>
+        <v>751.2212380928554</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1925.513372462139</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.370946561768</v>
+        <v>1625.370946561769</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.925338995059</v>
+        <v>1335.92533899506</v>
       </c>
       <c r="E41" t="n">
         <v>1018.957177436856</v>
       </c>
       <c r="F41" t="n">
-        <v>676.79136368729</v>
+        <v>676.7913636872897</v>
       </c>
       <c r="G41" t="n">
-        <v>329.485680192289</v>
+        <v>329.4856801922889</v>
       </c>
       <c r="H41" t="n">
         <v>89.93481253402931</v>
@@ -7412,13 +7412,13 @@
         <v>344.8139583742029</v>
       </c>
       <c r="K41" t="n">
-        <v>868.2168169432326</v>
+        <v>547.3128584977795</v>
       </c>
       <c r="L41" t="n">
-        <v>1474.738596518646</v>
+        <v>1029.720198360742</v>
       </c>
       <c r="M41" t="n">
-        <v>1826.996552080632</v>
+        <v>1826.996552080633</v>
       </c>
       <c r="N41" t="n">
         <v>2189.568218016799</v>
@@ -7448,10 +7448,10 @@
         <v>3153.206593873103</v>
       </c>
       <c r="W41" t="n">
-        <v>2869.258029643029</v>
+        <v>2869.25802964303</v>
       </c>
       <c r="X41" t="n">
-        <v>2564.61236242199</v>
+        <v>2564.612362421991</v>
       </c>
       <c r="Y41" t="n">
         <v>2243.29312148622</v>
@@ -7476,10 +7476,10 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F42" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G42" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H42" t="n">
         <v>104.3328803593266</v>
@@ -7488,22 +7488,22 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J42" t="n">
-        <v>242.4709188044724</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K42" t="n">
-        <v>391.5406030065324</v>
+        <v>528.5310626619803</v>
       </c>
       <c r="L42" t="n">
-        <v>638.3057309129965</v>
+        <v>1142.428132418869</v>
       </c>
       <c r="M42" t="n">
-        <v>945.6258641929583</v>
+        <v>1449.748265698831</v>
       </c>
       <c r="N42" t="n">
-        <v>1275.488491856991</v>
+        <v>1779.610893362863</v>
       </c>
       <c r="O42" t="n">
-        <v>1776.466079419201</v>
+        <v>2091.744220372739</v>
       </c>
       <c r="P42" t="n">
         <v>2296.766701154948</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026575</v>
       </c>
       <c r="C43" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147916</v>
       </c>
       <c r="D43" t="n">
-        <v>456.9802240424967</v>
+        <v>456.980224042497</v>
       </c>
       <c r="E43" t="n">
-        <v>377.8872215001446</v>
+        <v>377.8872215001449</v>
       </c>
       <c r="F43" t="n">
-        <v>299.8173650422753</v>
+        <v>299.8173650422756</v>
       </c>
       <c r="G43" t="n">
-        <v>200.462134402137</v>
+        <v>200.4621344021371</v>
       </c>
       <c r="H43" t="n">
         <v>118.8642169901215</v>
@@ -7567,16 +7567,16 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J43" t="n">
-        <v>155.9829803443641</v>
+        <v>155.982980344364</v>
       </c>
       <c r="K43" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173197</v>
       </c>
       <c r="L43" t="n">
         <v>688.7815720567933</v>
       </c>
       <c r="M43" t="n">
-        <v>1027.79888605232</v>
+        <v>1027.798886052321</v>
       </c>
       <c r="N43" t="n">
         <v>1365.793566308212</v>
@@ -7588,7 +7588,7 @@
         <v>1911.16945137598</v>
       </c>
       <c r="Q43" t="n">
-        <v>2017.453465576481</v>
+        <v>2017.45346557648</v>
       </c>
       <c r="R43" t="n">
         <v>1975.198453178347</v>
@@ -7609,10 +7609,10 @@
         <v>1062.363186054321</v>
       </c>
       <c r="X43" t="n">
-        <v>903.1937261963449</v>
+        <v>903.1937261963451</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.2212380928559</v>
+        <v>751.2212380928561</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7646,25 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J44" t="n">
-        <v>344.8139583742029</v>
+        <v>177.4083093538499</v>
       </c>
       <c r="K44" t="n">
-        <v>868.2168169432326</v>
+        <v>700.8111679228796</v>
       </c>
       <c r="L44" t="n">
-        <v>1415.511460712182</v>
+        <v>1124.703627589838</v>
       </c>
       <c r="M44" t="n">
-        <v>1767.769416274169</v>
+        <v>1921.979981309729</v>
       </c>
       <c r="N44" t="n">
-        <v>2130.341082210335</v>
+        <v>2717.52510241376</v>
       </c>
       <c r="O44" t="n">
-        <v>2836.364143234531</v>
+        <v>3046.555983987837</v>
       </c>
       <c r="P44" t="n">
-        <v>3401.264108490335</v>
+        <v>3611.455949243641</v>
       </c>
       <c r="Q44" t="n">
         <v>3748.258696799038</v>
@@ -7673,10 +7673,10 @@
         <v>3807.485832605501</v>
       </c>
       <c r="S44" t="n">
-        <v>3742.012625862514</v>
+        <v>3742.012625862513</v>
       </c>
       <c r="T44" t="n">
-        <v>3600.244041813159</v>
+        <v>3600.244041813158</v>
       </c>
       <c r="U44" t="n">
         <v>3415.449390176633</v>
@@ -7713,10 +7713,10 @@
         <v>483.7389902965687</v>
       </c>
       <c r="F45" t="n">
-        <v>337.2044323234536</v>
+        <v>337.2044323234537</v>
       </c>
       <c r="G45" t="n">
-        <v>200.2777539276389</v>
+        <v>200.277753927639</v>
       </c>
       <c r="H45" t="n">
         <v>104.3328803593266</v>
@@ -7725,16 +7725,16 @@
         <v>76.14971665211002</v>
       </c>
       <c r="J45" t="n">
-        <v>117.6407938174677</v>
+        <v>117.6407938174676</v>
       </c>
       <c r="K45" t="n">
-        <v>266.7104780195276</v>
+        <v>266.7104780195275</v>
       </c>
       <c r="L45" t="n">
-        <v>513.4756059259918</v>
+        <v>513.4756059259915</v>
       </c>
       <c r="M45" t="n">
-        <v>1281.843752318453</v>
+        <v>1226.399103845682</v>
       </c>
       <c r="N45" t="n">
         <v>2030.810682109832</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.3928643026572</v>
+        <v>638.3928643026574</v>
       </c>
       <c r="C46" t="n">
-        <v>538.2767724147914</v>
+        <v>538.2767724147915</v>
       </c>
       <c r="D46" t="n">
-        <v>456.9802240424967</v>
+        <v>456.9802240424968</v>
       </c>
       <c r="E46" t="n">
         <v>377.8872215001447</v>
@@ -7807,7 +7807,7 @@
         <v>155.9829803443641</v>
       </c>
       <c r="K46" t="n">
-        <v>373.6189558173198</v>
+        <v>373.6189558173199</v>
       </c>
       <c r="L46" t="n">
         <v>688.7815720567934</v>
@@ -7819,10 +7819,10 @@
         <v>1365.793566308212</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.119115541954</v>
+        <v>1667.119115541953</v>
       </c>
       <c r="P46" t="n">
-        <v>1911.169451375981</v>
+        <v>1911.16945137598</v>
       </c>
       <c r="Q46" t="n">
         <v>2017.453465576481</v>
@@ -7831,13 +7831,13 @@
         <v>1975.198453178347</v>
       </c>
       <c r="S46" t="n">
-        <v>1844.098534133941</v>
+        <v>1844.09853413394</v>
       </c>
       <c r="T46" t="n">
         <v>1689.133209963487</v>
       </c>
       <c r="U46" t="n">
-        <v>1468.824662217087</v>
+        <v>1468.824662217086</v>
       </c>
       <c r="V46" t="n">
         <v>1282.960265051241</v>
@@ -7849,7 +7849,7 @@
         <v>903.1937261963449</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2212380928559</v>
+        <v>751.221238092856</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3566784943937</v>
+        <v>263.6455160524019</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.69000120934049</v>
+        <v>99.69000120934042</v>
       </c>
       <c r="K6" t="n">
-        <v>91.44182305762445</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.9880694127791</v>
+        <v>459.9880694127793</v>
       </c>
       <c r="N6" t="n">
-        <v>447.2687841404443</v>
+        <v>79.34038145194978</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>230.3323934731279</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.3026741691179</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8696,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>280.5412144583759</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>268.3746053775266</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776751</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305272</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9176,13 +9176,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>211.8278622282885</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>43.34267162544677</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0.1242961376160991</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>103.1680613289454</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>158.8724419039337</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>261.7930203334334</v>
+        <v>349.6718322262472</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>246.6280670349171</v>
       </c>
       <c r="M38" t="n">
-        <v>284.7573767492257</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>5.891030169484338</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>392.1113620226436</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>321.61841003693</v>
+        <v>196.2502891152629</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>5.891030169484281</v>
+        <v>5.891030169484338</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>223.674264993447</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>261.7930203334315</v>
+        <v>137.1443495233398</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>423.337678916511</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D13" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>135.3933113208577</v>
@@ -23434,7 +23434,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I13" t="n">
-        <v>99.37859413856056</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>137.1263883408623</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>158.7684850689681</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E16" t="n">
         <v>135.3933113208577</v>
@@ -23668,7 +23668,7 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I16" t="n">
         <v>99.37859413856056</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U16" t="n">
-        <v>156.1898021354099</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>135.8716742520822</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>135.3933113208577</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>67.15720800698003</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.126388340862</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>74.06508482291842</v>
       </c>
       <c r="E22" t="n">
         <v>135.3933113208577</v>
@@ -24142,10 +24142,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>67.45556335630356</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>156.2061697729164</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>28.96098045303935</v>
+        <v>99.37859413856056</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>190.172414211844</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.40308525879956</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>154.5591946652606</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>133.8953512967694</v>
       </c>
       <c r="X31" t="n">
-        <v>177.6576330353492</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691165.7624810333</v>
+        <v>691165.7624810335</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244615</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244619</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>729247.1992295594</v>
       </c>
       <c r="F2" t="n">
+        <v>729247.1992295596</v>
+      </c>
+      <c r="G2" t="n">
         <v>729247.1992295595</v>
       </c>
-      <c r="G2" t="n">
-        <v>729247.1992295594</v>
-      </c>
       <c r="H2" t="n">
-        <v>729247.1992295594</v>
+        <v>729247.1992295596</v>
       </c>
       <c r="I2" t="n">
-        <v>729247.1992295594</v>
+        <v>729247.1992295596</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="N2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.3414468129</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>126749.0993655645</v>
+        <v>126749.0993655648</v>
       </c>
       <c r="D3" t="n">
-        <v>297200.2355174983</v>
+        <v>297200.2355174979</v>
       </c>
       <c r="E3" t="n">
-        <v>521251.0006747247</v>
+        <v>521251.0006747246</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11347.94774731176</v>
+        <v>11347.94774731182</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113904</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>29469.59349252042</v>
+        <v>29469.59349252039</v>
       </c>
       <c r="L3" t="n">
-        <v>126288.9629623012</v>
+        <v>126288.9629623011</v>
       </c>
       <c r="M3" t="n">
-        <v>58540.52504815552</v>
+        <v>58540.52504815548</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>281053.6950278204</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>52680.79968367663</v>
+        <v>52680.7996836766</v>
       </c>
       <c r="F4" t="n">
-        <v>52680.79968367662</v>
+        <v>52680.79968367661</v>
       </c>
       <c r="G4" t="n">
-        <v>52680.79968367662</v>
+        <v>52680.7996836766</v>
       </c>
       <c r="H4" t="n">
-        <v>52680.79968367661</v>
+        <v>52680.79968367664</v>
       </c>
       <c r="I4" t="n">
         <v>47194.34598600486</v>
@@ -26442,22 +26442,22 @@
         <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>65980.20872448604</v>
+        <v>65980.20872448603</v>
       </c>
       <c r="M4" t="n">
-        <v>99837.12979766791</v>
+        <v>99837.12979766782</v>
       </c>
       <c r="N4" t="n">
+        <v>99837.12979766788</v>
+      </c>
+      <c r="O4" t="n">
         <v>99837.12979766782</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>99837.12979766785</v>
-      </c>
-      <c r="P4" t="n">
-        <v>99837.12979766783</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>60291.990170294</v>
+        <v>60291.99017029404</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90320.91526417041</v>
+        <v>90320.9152641704</v>
       </c>
       <c r="F5" t="n">
         <v>90320.91526417041</v>
       </c>
       <c r="G5" t="n">
-        <v>90320.91526417041</v>
+        <v>90320.9152641704</v>
       </c>
       <c r="H5" t="n">
-        <v>90320.91526417041</v>
+        <v>90320.9152641704</v>
       </c>
       <c r="I5" t="n">
         <v>92915.50246501787</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>81703.90096581176</v>
+      </c>
+      <c r="N5" t="n">
         <v>81703.90096581174</v>
-      </c>
-      <c r="N5" t="n">
-        <v>81703.90096581176</v>
       </c>
       <c r="O5" t="n">
         <v>81703.90096581176</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>265061.9477239562</v>
+        <v>265061.9477239561</v>
       </c>
       <c r="C6" t="n">
-        <v>291368.852560783</v>
+        <v>291368.8525607827</v>
       </c>
       <c r="D6" t="n">
-        <v>187197.7271511247</v>
+        <v>187197.7271511253</v>
       </c>
       <c r="E6" t="n">
-        <v>64994.48360698766</v>
+        <v>64912.81755862322</v>
       </c>
       <c r="F6" t="n">
-        <v>586245.4842817126</v>
+        <v>586163.8182333481</v>
       </c>
       <c r="G6" t="n">
-        <v>586245.4842817124</v>
+        <v>586163.818233348</v>
       </c>
       <c r="H6" t="n">
-        <v>586245.4842817124</v>
+        <v>586163.818233348</v>
       </c>
       <c r="I6" t="n">
-        <v>577789.4030312249</v>
+        <v>577707.7369828605</v>
       </c>
       <c r="J6" t="n">
-        <v>515600.3182117399</v>
+        <v>515502.8590857679</v>
       </c>
       <c r="K6" t="n">
-        <v>558385.4195903586</v>
+        <v>558287.9604643866</v>
       </c>
       <c r="L6" t="n">
-        <v>469479.3596176487</v>
+        <v>469479.3596176494</v>
       </c>
       <c r="M6" t="n">
-        <v>519382.0813128265</v>
+        <v>519382.0813128271</v>
       </c>
       <c r="N6" t="n">
-        <v>577922.6063609825</v>
+        <v>577922.6063609824</v>
       </c>
       <c r="O6" t="n">
-        <v>577922.6063609822</v>
+        <v>577922.6063609829</v>
       </c>
       <c r="P6" t="n">
-        <v>577922.6063609825</v>
+        <v>577922.6063609824</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>133.5893551124171</v>
+        <v>133.5893551124175</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>390.6602340270281</v>
+        <v>390.6602340270285</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
+        <v>951.8714581513754</v>
+      </c>
+      <c r="N4" t="n">
         <v>951.8714581513751</v>
-      </c>
-      <c r="N4" t="n">
-        <v>951.8714581513752</v>
       </c>
       <c r="O4" t="n">
         <v>951.8714581513752</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>98.56809439329184</v>
+        <v>98.56809439329211</v>
       </c>
       <c r="D3" t="n">
-        <v>244.1543091046695</v>
+        <v>244.1543091046692</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>114.5037203246727</v>
+        <v>114.5037203246731</v>
       </c>
       <c r="D4" t="n">
-        <v>283.6270387275275</v>
+        <v>283.6270387275271</v>
       </c>
       <c r="E4" t="n">
-        <v>498.2522389061318</v>
+        <v>498.2522389061315</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,16 +27030,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>42.67413159288571</v>
+        <v>42.67413159288594</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023553</v>
+        <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>114.5037203246729</v>
+        <v>114.5037203246728</v>
       </c>
       <c r="L4" t="n">
-        <v>283.6270387275274</v>
+        <v>283.6270387275271</v>
       </c>
       <c r="M4" t="n">
         <v>234.9100538039338</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>114.5037203246727</v>
+        <v>114.5037203246731</v>
       </c>
       <c r="L4" t="n">
-        <v>283.6270387275275</v>
+        <v>283.6270387275271</v>
       </c>
       <c r="M4" t="n">
-        <v>498.2522389061318</v>
+        <v>498.2522389061315</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>243.5245195368227</v>
       </c>
       <c r="W2" t="n">
-        <v>145.0439462943442</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>108.7716316146257</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>164.7375928819206</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.2176803404121</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27594,7 +27594,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>285.2505066538556</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>333.9748142442293</v>
       </c>
       <c r="I5" t="n">
-        <v>122.5029298043291</v>
+        <v>189.7715534378573</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>116.1341136071582</v>
       </c>
       <c r="S5" t="n">
         <v>196.7822105726807</v>
@@ -27670,7 +27670,7 @@
         <v>220.7449454354696</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3026894971471</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0561740220254</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>79.50345891148605</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.31735386046029</v>
       </c>
       <c r="S6" t="n">
         <v>166.3458982840162</v>
       </c>
       <c r="T6" t="n">
-        <v>199.0065341915356</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9224779269495</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>205.3801195132021</v>
       </c>
       <c r="X6" t="n">
-        <v>93.11978703984589</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>134.1744570320394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.7500805213708</v>
@@ -27795,7 +27795,7 @@
         <v>148.2059898991947</v>
       </c>
       <c r="J7" t="n">
-        <v>76.32763233455363</v>
+        <v>76.32763233455358</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.99005062971941</v>
+        <v>65.99005062971935</v>
       </c>
       <c r="R7" t="n">
-        <v>166.4617036659233</v>
+        <v>146.4715664301719</v>
       </c>
       <c r="S7" t="n">
         <v>219.8183883033574</v>
@@ -27828,7 +27828,7 @@
         <v>226.9162943970875</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3058894199224</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>267.6082813456343</v>
+        <v>190.7830992058453</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.5992422935956</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.04065132571156</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E20" t="n">
-        <v>11.04065132571145</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571219</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="26">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F35" t="n">
-        <v>68.13189012964165</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964099</v>
       </c>
       <c r="T35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964213</v>
       </c>
       <c r="V38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="F41" t="n">
-        <v>68.13189012964153</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G41" t="n">
         <v>68.13189012964064</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.13189012964145</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964122</v>
       </c>
       <c r="V44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5370426336177569</v>
+        <v>0.5370426336177582</v>
       </c>
       <c r="H5" t="n">
-        <v>5.499987871537854</v>
+        <v>5.499987871537868</v>
       </c>
       <c r="I5" t="n">
-        <v>20.70433613254859</v>
+        <v>20.70433613254864</v>
       </c>
       <c r="J5" t="n">
-        <v>45.58082222501514</v>
+        <v>45.58082222501525</v>
       </c>
       <c r="K5" t="n">
-        <v>68.3138369060548</v>
+        <v>68.31383690605496</v>
       </c>
       <c r="L5" t="n">
-        <v>84.74935540463424</v>
+        <v>84.74935540463444</v>
       </c>
       <c r="M5" t="n">
-        <v>94.29998734023403</v>
+        <v>94.29998734023425</v>
       </c>
       <c r="N5" t="n">
-        <v>95.82585972300049</v>
+        <v>95.82585972300072</v>
       </c>
       <c r="O5" t="n">
-        <v>90.48564203496392</v>
+        <v>90.48564203496413</v>
       </c>
       <c r="P5" t="n">
-        <v>77.22740201752553</v>
+        <v>77.2274020175257</v>
       </c>
       <c r="Q5" t="n">
-        <v>57.99456270108959</v>
+        <v>57.99456270108973</v>
       </c>
       <c r="R5" t="n">
-        <v>33.73500433399145</v>
+        <v>33.73500433399153</v>
       </c>
       <c r="S5" t="n">
-        <v>12.23785901356465</v>
+        <v>12.23785901356468</v>
       </c>
       <c r="T5" t="n">
-        <v>2.350904128661732</v>
+        <v>2.350904128661738</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04296341068942055</v>
+        <v>0.04296341068942065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2873431411851992</v>
+        <v>0.2873431411851998</v>
       </c>
       <c r="H6" t="n">
-        <v>2.775129810920213</v>
+        <v>2.77512981092022</v>
       </c>
       <c r="I6" t="n">
-        <v>9.893173939929007</v>
+        <v>9.89317393992903</v>
       </c>
       <c r="J6" t="n">
-        <v>27.14762545732621</v>
+        <v>27.14762545732627</v>
       </c>
       <c r="K6" t="n">
-        <v>46.39961591673455</v>
+        <v>46.39961591673466</v>
       </c>
       <c r="L6" t="n">
-        <v>62.39000966830388</v>
+        <v>62.39000966830402</v>
       </c>
       <c r="M6" t="n">
-        <v>72.80619853626733</v>
+        <v>72.8061985362675</v>
       </c>
       <c r="N6" t="n">
-        <v>74.73316196991721</v>
+        <v>74.73316196991739</v>
       </c>
       <c r="O6" t="n">
-        <v>68.36624289418201</v>
+        <v>68.36624289418216</v>
       </c>
       <c r="P6" t="n">
-        <v>54.86993719702281</v>
+        <v>54.86993719702294</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.67909991690367</v>
+        <v>36.67909991690375</v>
       </c>
       <c r="R6" t="n">
-        <v>17.84048029218281</v>
+        <v>17.84048029218285</v>
       </c>
       <c r="S6" t="n">
-        <v>5.337272819821568</v>
+        <v>5.337272819821581</v>
       </c>
       <c r="T6" t="n">
-        <v>1.158194503285956</v>
+        <v>1.158194503285958</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01890415402534205</v>
+        <v>0.0189041540253421</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2408988370879653</v>
+        <v>0.2408988370879659</v>
       </c>
       <c r="H7" t="n">
-        <v>2.14180966065482</v>
+        <v>2.141809660654825</v>
       </c>
       <c r="I7" t="n">
-        <v>7.244485028063541</v>
+        <v>7.244485028063558</v>
       </c>
       <c r="J7" t="n">
-        <v>17.03154778211914</v>
+        <v>17.03154778211919</v>
       </c>
       <c r="K7" t="n">
-        <v>27.98806489076542</v>
+        <v>27.98806489076548</v>
       </c>
       <c r="L7" t="n">
-        <v>35.81508710669623</v>
+        <v>35.81508710669631</v>
       </c>
       <c r="M7" t="n">
-        <v>37.76198770825259</v>
+        <v>37.76198770825268</v>
       </c>
       <c r="N7" t="n">
-        <v>36.86409204274293</v>
+        <v>36.86409204274302</v>
       </c>
       <c r="O7" t="n">
-        <v>34.04995562766987</v>
+        <v>34.04995562766995</v>
       </c>
       <c r="P7" t="n">
-        <v>29.13561935107536</v>
+        <v>29.13561935107542</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.17199262197499</v>
+        <v>20.17199262197503</v>
       </c>
       <c r="R7" t="n">
-        <v>10.83168771124615</v>
+        <v>10.83168771124617</v>
       </c>
       <c r="S7" t="n">
-        <v>4.198209733614812</v>
+        <v>4.198209733614822</v>
       </c>
       <c r="T7" t="n">
-        <v>1.029295031194033</v>
+        <v>1.029295031194036</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01313993656843449</v>
+        <v>0.01313993656843452</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34132,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34369,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.6067186693945</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>33.63153287040262</v>
+        <v>33.63153287040273</v>
       </c>
       <c r="K5" t="n">
-        <v>172.369398432239</v>
+        <v>172.3693984322392</v>
       </c>
       <c r="L5" t="n">
-        <v>266.6441549850974</v>
+        <v>266.6441549850977</v>
       </c>
       <c r="M5" t="n">
-        <v>313.4672876057938</v>
+        <v>313.467287605794</v>
       </c>
       <c r="N5" t="n">
-        <v>303.7597205383937</v>
+        <v>303.7597205383939</v>
       </c>
       <c r="O5" t="n">
-        <v>241.1876118760225</v>
+        <v>241.1876118760227</v>
       </c>
       <c r="P5" t="n">
-        <v>167.7931144337387</v>
+        <v>167.7931144337388</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.00386348654479</v>
+        <v>48.00386348654492</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.0234139549543</v>
       </c>
       <c r="L6" t="n">
-        <v>294.6759751918889</v>
+        <v>294.675975191889</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6602340270281</v>
+        <v>390.6602340270285</v>
       </c>
       <c r="N6" t="n">
-        <v>390.6602340270281</v>
+        <v>22.73183133853387</v>
       </c>
       <c r="O6" t="n">
-        <v>319.6323177264671</v>
+        <v>319.6323177264672</v>
       </c>
       <c r="P6" t="n">
-        <v>151.2279232558205</v>
+        <v>239.3582984226299</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>106.7746135667313</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.718573064882566</v>
+        <v>5.71857306488263</v>
       </c>
       <c r="L7" t="n">
-        <v>63.40511236701237</v>
+        <v>63.40511236701245</v>
       </c>
       <c r="M7" t="n">
-        <v>77.34586467009318</v>
+        <v>77.34586467009328</v>
       </c>
       <c r="N7" t="n">
-        <v>80.99626442197152</v>
+        <v>80.9962644219716</v>
       </c>
       <c r="O7" t="n">
-        <v>58.63508354170955</v>
+        <v>58.63508354170963</v>
       </c>
       <c r="P7" t="n">
-        <v>26.41417861596884</v>
+        <v>26.41417861596891</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>636.3573311876551</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>634.6086113736543</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35495,10 +35495,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8335596281415</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>621.603755975688</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K13" t="n">
         <v>162.743079855622</v>
@@ -35586,7 +35586,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336994</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K16" t="n">
         <v>162.743079855622</v>
@@ -35823,7 +35823,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,13 +35896,13 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>544.1822880606903</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>181.5272651157469</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35972,13 +35972,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>621.603755975688</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>102.4057029070503</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>241.3526548192455</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,7 +36206,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,10 +36215,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>365.9658568354584</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,13 +36446,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>481.9867828282169</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
@@ -36525,7 +36525,7 @@
         <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37087,7 +37087,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595513</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>552.82287249389</v>
+        <v>640.701684386704</v>
       </c>
       <c r="M35" t="n">
-        <v>355.8161167292791</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>366.2340059961276</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>537.6579191953739</v>
       </c>
       <c r="M38" t="n">
-        <v>640.5734934785049</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>366.2340059961277</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>332.3544258324018</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>248.8073173394297</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>702.5357390731099</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>204.5443435591683</v>
       </c>
       <c r="L41" t="n">
-        <v>612.6482621973869</v>
+        <v>487.2801412757196</v>
       </c>
       <c r="M41" t="n">
-        <v>355.8161167292793</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>366.2340059961279</v>
+        <v>366.2340059961277</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>506.0379672345553</v>
+        <v>315.2861888988639</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>102.2814067694342</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>552.8228724938883</v>
+        <v>428.1742016837965</v>
       </c>
       <c r="M44" t="n">
-        <v>355.8161167292793</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>366.2340059961279</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>332.3544258324018</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>138.1845934903002</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
